--- a/R/Figures/Table1.xlsx
+++ b/R/Figures/Table1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +174,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,17 +497,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:14" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:14" ht="105" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
@@ -528,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="6">
-        <v>0.17019999999999999</v>
+        <v>0.18124270770145814</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="5">
-        <v>0.32</v>
+      <c r="K6" s="10">
+        <v>0.34849042193454199</v>
       </c>
       <c r="M6">
         <v>0.15</v>
@@ -541,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F7" s="4"/>
       <c r="G7" s="5">
         <v>2</v>
@@ -550,18 +557,18 @@
         <v>6</v>
       </c>
       <c r="I7" s="6">
-        <v>0.1411</v>
+        <v>0.12985798693849054</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="5">
-        <v>0.24</v>
+      <c r="K7" s="10">
+        <v>0.21714645790376599</v>
       </c>
       <c r="M7">
         <f>+K7+K6+M6</f>
-        <v>0.71000000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.71563687983830804</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F8" s="4"/>
       <c r="G8" s="5">
         <v>3</v>
@@ -570,14 +577,14 @@
         <v>7</v>
       </c>
       <c r="I8" s="6">
-        <v>9.8500000000000004E-2</v>
+        <v>9.877361793325741E-2</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="5">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="9" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K8" s="10">
+        <v>0.20587117505809299</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F9" s="4"/>
       <c r="G9" s="5">
         <v>4</v>
@@ -586,14 +593,14 @@
         <v>8</v>
       </c>
       <c r="I9" s="6">
-        <v>2.24E-2</v>
+        <v>2.2466154641226241E-2</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K9" s="10">
+        <v>2.6410866253357299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F10" s="4"/>
       <c r="G10" s="5">
         <v>5</v>
@@ -602,14 +609,14 @@
         <v>9</v>
       </c>
       <c r="I10" s="6">
-        <v>6.8400000000000002E-2</v>
+        <v>6.85256406014495E-2</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="5">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="10">
+        <v>0.228662834480517</v>
+      </c>
+    </row>
+    <row r="11" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F11" s="4"/>
       <c r="G11" s="5">
         <v>6</v>
@@ -618,16 +625,16 @@
         <v>10</v>
       </c>
       <c r="I11" s="6">
-        <v>-0.26429999999999998</v>
+        <v>-0.26386508746591975</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="5">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K11" s="10">
+        <v>-0.15126426729800399</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F12" s="4"/>
       <c r="G12" s="5">
         <v>7</v>
@@ -636,14 +643,14 @@
         <v>12</v>
       </c>
       <c r="I12" s="6">
-        <v>0.70960000000000001</v>
+        <v>0.70893124917460981</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="10">
+        <v>0.5505534351893</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
       <c r="G13" s="7">
         <v>8</v>
@@ -652,14 +659,14 @@
         <v>13</v>
       </c>
       <c r="I13" s="8">
-        <v>5.4100000000000002E-2</v>
+        <v>5.4067730475427948E-2</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="7">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="11">
+        <v>-4.7597061168772797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -667,7 +674,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
@@ -678,11 +685,11 @@
         <v>5</v>
       </c>
       <c r="I15" s="6">
-        <v>0.14349999999999999</v>
+        <v>0.15246356908721456</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="5">
-        <v>0.44</v>
+      <c r="K15" s="10">
+        <v>0.46996721545215803</v>
       </c>
       <c r="M15">
         <v>0.15</v>
@@ -691,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="6:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F16" s="4"/>
       <c r="G16" s="5">
         <v>2</v>
@@ -700,18 +707,18 @@
         <v>6</v>
       </c>
       <c r="I16" s="6">
-        <v>7.4300000000000005E-2</v>
+        <v>6.5432161472483624E-2</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="5">
-        <v>0.22</v>
+      <c r="K16" s="10">
+        <v>0.18553738345300999</v>
       </c>
       <c r="M16">
         <f>+K16+K15+M15</f>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.80550459890516801</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F17" s="4"/>
       <c r="G17" s="5">
         <v>3</v>
@@ -720,14 +727,14 @@
         <v>7</v>
       </c>
       <c r="I17" s="6">
-        <v>0.1013</v>
+        <v>0.10167795426353882</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="5">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="10">
+        <v>0.332685816931033</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F18" s="4"/>
       <c r="G18" s="5">
         <v>4</v>
@@ -736,14 +743,14 @@
         <v>8</v>
       </c>
       <c r="I18" s="6">
-        <v>7.4000000000000003E-3</v>
+        <v>7.4202451698316763E-3</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="10">
+        <v>5.4398592949141303E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F19" s="4"/>
       <c r="G19" s="5">
         <v>5</v>
@@ -752,14 +759,14 @@
         <v>9</v>
       </c>
       <c r="I19" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5128321532628718E-2</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K19" s="10">
+        <v>0.117523690735752</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F20" s="4"/>
       <c r="G20" s="5">
         <v>6</v>
@@ -768,16 +775,16 @@
         <v>10</v>
       </c>
       <c r="I20" s="6">
-        <v>-0.26469999999999999</v>
+        <v>-0.26462135063045539</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="5">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K20" s="10">
+        <v>-0.188153609954924</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F21" s="4"/>
       <c r="G21" s="5">
         <v>7</v>
@@ -786,14 +793,14 @@
         <v>12</v>
       </c>
       <c r="I21" s="6">
-        <v>0.92169999999999996</v>
+        <v>0.92106141101640548</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="5">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="10">
+        <v>0.77373004517613697</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="7">
         <v>8</v>
@@ -802,16 +809,16 @@
         <v>13</v>
       </c>
       <c r="I22" s="8">
-        <v>-2.86E-2</v>
+        <v>-2.8562311911647403E-2</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="11">
+        <v>4.11702623680128E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="9" t="s">
         <v>15</v>
       </c>

--- a/R/Figures/Table1.xlsx
+++ b/R/Figures/Table1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Sex</t>
   </si>
@@ -71,16 +71,31 @@
     <t>Males</t>
   </si>
   <si>
-    <t>* Reduces the gap with Sweden. Represents potential gains for Sweden if they achieve the levels of Denmark.</t>
-  </si>
-  <si>
     <t>Infant mortality</t>
+  </si>
+  <si>
+    <t>gap in life expectancy</t>
+  </si>
+  <si>
+    <t>Reduction in life expectancy (%)</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>* Increases the gap with Sweden. Represents potential gains for Sweden if they achieve the levels of Denmark.</t>
+  </si>
+  <si>
+    <t>** Increases the gap with Sweden in life expectancy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +151,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -146,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,23 +178,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,20 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:N23"/>
+  <dimension ref="F5:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:14" ht="105" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:18" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,10 +551,14 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
@@ -534,21 +568,29 @@
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="9">
         <v>0.18124270770145814</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
+        <f>+M6/$R$7</f>
+        <v>0.25252929125691453</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7">
         <v>0.34849042193454199</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.15</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F7" s="4"/>
       <c r="G7" s="5">
         <v>2</v>
@@ -556,19 +598,27 @@
       <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="9">
         <v>0.12985798693849054</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
+        <f t="shared" ref="K7:K15" si="0">+M7/$R$7</f>
+        <v>0.15735250572736667</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7">
         <v>0.21714645790376599</v>
       </c>
-      <c r="M7">
-        <f>+K7+K6+M6</f>
+      <c r="O7">
+        <f>+M7+M6+O6</f>
         <v>0.71563687983830804</v>
       </c>
-    </row>
-    <row r="8" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F8" s="4"/>
       <c r="G8" s="5">
         <v>3</v>
@@ -576,15 +626,20 @@
       <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="9">
         <v>9.877361793325741E-2</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.14918201091166161</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7">
         <v>0.20587117505809299</v>
       </c>
     </row>
-    <row r="9" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F9" s="4"/>
       <c r="G9" s="5">
         <v>4</v>
@@ -592,15 +647,20 @@
       <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="9">
         <v>2.2466154641226241E-2</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.913830887924442E-2</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7">
         <v>2.6410866253357299E-2</v>
       </c>
     </row>
-    <row r="10" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F10" s="4"/>
       <c r="G10" s="5">
         <v>5</v>
@@ -608,15 +668,20 @@
       <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="9">
         <v>6.85256406014495E-2</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.16569770614530219</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="7">
         <v>0.228662834480517</v>
       </c>
     </row>
-    <row r="11" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F11" s="4"/>
       <c r="G11" s="5">
         <v>6</v>
@@ -624,17 +689,24 @@
       <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="9">
         <v>-0.26386508746591975</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.10961178789710435</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
         <v>-0.15126426729800399</v>
       </c>
     </row>
-    <row r="12" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F12" s="4"/>
       <c r="G12" s="5">
         <v>7</v>
@@ -642,39 +714,53 @@
       <c r="H12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="9">
         <v>0.70893124917460981</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="10">
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.39895176462992754</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7">
         <v>0.5505534351893</v>
       </c>
     </row>
-    <row r="13" spans="6:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>5.4067730475427948E-2</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="11">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.4490624035342608E-2</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="8">
         <v>-4.7597061168772797E-2</v>
       </c>
     </row>
-    <row r="14" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
@@ -684,21 +770,26 @@
       <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="9">
         <v>0.15246356908721456</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="10">
+      <c r="K15" s="11">
+        <f>+M15/$R$16</f>
+        <v>0.26255151701237878</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="7">
         <v>0.46996721545215803</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.15</v>
       </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="6:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="6:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F16" s="4"/>
       <c r="G16" s="5">
         <v>2</v>
@@ -706,19 +797,27 @@
       <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="9">
         <v>6.5432161472483624E-2</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="10">
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:K22" si="1">+M16/$R$16</f>
+        <v>0.10365216952682123</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="7">
         <v>0.18553738345300999</v>
       </c>
-      <c r="M16">
-        <f>+K16+K15+M15</f>
+      <c r="O16">
+        <f>+M16+M15+O15</f>
         <v>0.80550459890516801</v>
       </c>
-    </row>
-    <row r="17" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F17" s="4"/>
       <c r="G17" s="5">
         <v>3</v>
@@ -726,15 +825,20 @@
       <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="9">
         <v>0.10167795426353882</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="10">
+      <c r="K17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18585799828549329</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="7">
         <v>0.332685816931033</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F18" s="4"/>
       <c r="G18" s="5">
         <v>4</v>
@@ -742,15 +846,20 @@
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="9">
         <v>7.4202451698316763E-3</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0390275390581731E-2</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="7">
         <v>5.4398592949141303E-2</v>
       </c>
     </row>
-    <row r="19" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F19" s="4"/>
       <c r="G19" s="5">
         <v>5</v>
@@ -758,15 +867,20 @@
       <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="9">
         <v>4.5128321532628718E-2</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="10">
+      <c r="K19" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5655693148464797E-2</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="7">
         <v>0.117523690735752</v>
       </c>
     </row>
-    <row r="20" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F20" s="4"/>
       <c r="G20" s="5">
         <v>6</v>
@@ -774,17 +888,24 @@
       <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="9">
         <v>-0.26462135063045539</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.10511374857816982</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="7">
         <v>-0.188153609954924</v>
       </c>
     </row>
-    <row r="21" spans="6:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="F21" s="4"/>
       <c r="G21" s="5">
         <v>7</v>
@@ -792,45 +913,68 @@
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <v>0.92106141101640548</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="10">
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.43225142188611004</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="7">
         <v>0.77373004517613697</v>
       </c>
     </row>
-    <row r="22" spans="6:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
-      <c r="G22" s="7">
+      <c r="G22" s="2">
         <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="15">
         <v>-2.8562311911647403E-2</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J22" s="2"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>2.3000146574308825E-2</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
         <v>4.11702623680128E-2</v>
       </c>
     </row>
-    <row r="23" spans="6:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+    <row r="23" spans="6:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="6:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F23:K23"/>
+  <mergeCells count="2">
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
